--- a/jamal-xls/src/test/resources/tobedeleted.xlsx
+++ b/jamal-xls/src/test/resources/tobedeleted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verhasp/github/jamal/jamal-xls/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D702978C-B261-5548-B2AB-98E28C50B79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8A25D7-22F8-1B4E-A380-D238CC8D3E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16240" yWindow="7380" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{5FA2AFD4-335A-3246-B938-841A5EE25EAD}"/>
+    <workbookView xWindow="25340" yWindow="5240" windowWidth="28040" windowHeight="17440" xr2:uid="{5FA2AFD4-335A-3246-B938-841A5EE25EAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
   <si>
     <t>This is a sheet that will be deleted in the output</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>remains</t>
+  </si>
+  <si>
+    <t>This will also be deleted.</t>
   </si>
 </sst>
 </file>
@@ -502,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AEB8E2-D051-7446-9F43-E52F39AB36A8}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,49 +634,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G25">
         <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50CA3D6-727B-4F4C-87B6-A3781A7AF405}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
